--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/55.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/55.xlsx
@@ -479,13 +479,13 @@
         <v>-3.94350253237807</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.722854220561819</v>
+        <v>-8.588474824194343</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.036120835138209</v>
+        <v>-3.078762465493711</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.459637014170122</v>
+        <v>-5.437471745459079</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.870450721977923</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.973309973924039</v>
+        <v>-8.830433673012282</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.123669064240831</v>
+        <v>-3.176876182989606</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.39287936198016</v>
+        <v>-5.364076295728363</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-1.887275585763224</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.788672410301055</v>
+        <v>-9.650718815257788</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.00890193753026</v>
+        <v>-3.063667040317201</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.262126533499842</v>
+        <v>-5.242200048574735</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-1.154035364001931</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.55531838780401</v>
+        <v>-10.42055931465412</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.912018896501487</v>
+        <v>-2.964139354114399</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.476041669630805</v>
+        <v>-5.446086480728935</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.6421845186741305</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.33228109994624</v>
+        <v>-11.19960370294819</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.762203675083616</v>
+        <v>-2.810239334209909</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.029685788847837</v>
+        <v>-4.999861522974386</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3612343674523833</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.99170111717546</v>
+        <v>-11.85882733563478</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.732837639809625</v>
+        <v>-2.778634515149982</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.161093232470242</v>
+        <v>-5.142489070132149</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2714051555772269</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.492769731534</v>
+        <v>-12.35448882891969</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.610346054422436</v>
+        <v>-2.658407898154412</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.720641980268893</v>
+        <v>-4.702142556353535</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3431551911324158</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.46182271097004</v>
+        <v>-13.33419894286889</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.36121262364723</v>
+        <v>-2.40566099179489</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.633394874131631</v>
+        <v>-4.62064297116379</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.522813246408664</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.20723297326371</v>
+        <v>-14.08157305058882</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.340343492917519</v>
+        <v>-2.381846092925791</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.249986785411683</v>
+        <v>-4.258339674624704</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.7612151492503115</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.90452902261404</v>
+        <v>-14.78015214561764</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.162209620452994</v>
+        <v>-2.202285159451518</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.037132125810901</v>
+        <v>-4.042997477483994</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.007152698696605</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.56621400823488</v>
+        <v>-15.44788577515136</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.152979546949577</v>
+        <v>-2.183353689542382</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.522460608799807</v>
+        <v>-3.526152638201174</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.214005378079609</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.53435052647199</v>
+        <v>-16.42031656872056</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.985175501427174</v>
+        <v>-2.020852026670878</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.883621691637784</v>
+        <v>-2.883909722300302</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.348729463611834</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.17023058319179</v>
+        <v>-17.06560999118355</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.709988387996934</v>
+        <v>-1.73491613260758</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.508867615096217</v>
+        <v>-2.524107055603986</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.39009582859201</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.07363875617941</v>
+        <v>-17.97276256278391</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.541333342789819</v>
+        <v>-1.563681903740645</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.915275696555199</v>
+        <v>-1.924649785389875</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.33484557983246</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.98727201768642</v>
+        <v>-18.8926932219578</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.38046821777353</v>
+        <v>-1.393900920489141</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.548717401592552</v>
+        <v>-1.582639558255464</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.198717962158228</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.7729411112184</v>
+        <v>-19.68414911334582</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.141284937158037</v>
+        <v>-1.145880335455483</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.020560812654481</v>
+        <v>-1.054391323197501</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.010381640728821</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.75807143854408</v>
+        <v>-20.67414977732862</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.043852019409911</v>
+        <v>-1.046771602943616</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6552986556731653</v>
+        <v>-0.6927426418005018</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.8085959576032675</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.59614902035149</v>
+        <v>-21.51483272740153</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8941415364147739</v>
+        <v>-0.8958959049955652</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2841056855045477</v>
+        <v>-0.3256999316327115</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.6321578283563093</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.24848610174334</v>
+        <v>-22.16506194803586</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6459114745356477</v>
+        <v>-0.6371265393288494</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0849663316037101</v>
+        <v>0.05287709733863951</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.5134762819035428</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.87420653145795</v>
+        <v>-22.79649062178946</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3477473696181782</v>
+        <v>-0.3350478358617039</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4071286276300635</v>
+        <v>0.366909073300281</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.4775459631387655</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.5041426826876</v>
+        <v>-23.42772291100044</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0826806062845922</v>
+        <v>-0.06010947618545646</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3733504862984102</v>
+        <v>0.3272132110841676</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.5344353213597864</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.01305358644833</v>
+        <v>-23.94130776687567</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03450859645169783</v>
+        <v>0.05851987986342345</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6436672630715283</v>
+        <v>0.5842805773814589</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.6870266094657552</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.39201029220209</v>
+        <v>-24.32622147042242</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01447737310385695</v>
+        <v>0.04062270187878391</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5687138293026466</v>
+        <v>0.5151139414686201</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.9279201987079935</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.66264128424341</v>
+        <v>-24.59903887703831</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2997062828137011</v>
+        <v>0.3261920114625129</v>
       </c>
       <c r="G25" t="n">
-        <v>0.557559187281496</v>
+        <v>0.5046270068923975</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.240090461915747</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.67511824885158</v>
+        <v>-24.61816673149007</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3157574460976572</v>
+        <v>0.3402531447145267</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4039210134338406</v>
+        <v>0.3430548975226561</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.601443377475183</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.64258387628989</v>
+        <v>-24.59888176940421</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1344028671340677</v>
+        <v>0.1587938273282034</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3800275607476905</v>
+        <v>0.3203659366979448</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.980630959322068</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.74789836034874</v>
+        <v>-24.71161958917431</v>
       </c>
       <c r="F28" t="n">
-        <v>0.25244306955507</v>
+        <v>0.272369554480177</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09276934409737884</v>
+        <v>0.0340896427607626</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.347791289618954</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.79048762149287</v>
+        <v>-24.75951123296934</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2099192699251437</v>
+        <v>0.2159155446266542</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.007858095544127721</v>
+        <v>-0.05754338482847815</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.673364955828788</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.55969650699892</v>
+        <v>-24.53030428711925</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07636468863669607</v>
+        <v>0.09372508220482484</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2082096059310617</v>
+        <v>-0.2542945119339375</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.931476385154241</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.09130628053333</v>
+        <v>-24.05682115484823</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07907479532493338</v>
+        <v>0.09096260630522064</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6692943274109704</v>
+        <v>-0.7099066508260047</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.103187380792908</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.17213815827815</v>
+        <v>-24.14557387581229</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1426510179243552</v>
+        <v>0.1553898285893546</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.733263319095644</v>
+        <v>-0.7596574016245637</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.174745857440373</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.7480653769318</v>
+        <v>-23.71981218739935</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05710591115651703</v>
+        <v>0.0655242618837469</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.197031962658107</v>
+        <v>-1.219223415974832</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.140022962809246</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.18867055341337</v>
+        <v>-23.16001150249283</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.09476480180750536</v>
+        <v>-0.09329846388923205</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.276109471822132</v>
+        <v>-1.290903774033282</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.999890851005858</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.84103063605702</v>
+        <v>-22.81885227504313</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.288347591625267</v>
+        <v>-0.283948577870447</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.300880108798678</v>
+        <v>-1.311877643185728</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.762338709416309</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.11422453610144</v>
+        <v>-22.09145702145968</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4154607599155854</v>
+        <v>-0.418013758969722</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.507123155464388</v>
+        <v>-1.511810199881726</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.441411889154395</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.31069754149334</v>
+        <v>-21.27663136949917</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3497243073472788</v>
+        <v>-0.3542935210390412</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.62546448085075</v>
+        <v>-1.642235720791001</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.055686219757435</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.93469969618181</v>
+        <v>-20.90185110835192</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4110879307664489</v>
+        <v>-0.4073435321537152</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.873131573707682</v>
+        <v>-1.891146582417897</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.626426715833972</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.27817307788061</v>
+        <v>-20.24829644279579</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2569391571079662</v>
+        <v>-0.259387417739369</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.032281607051705</v>
+        <v>-2.042938741564869</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.175662891566211</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.96643225491627</v>
+        <v>-19.94713420052757</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.539601975460832</v>
+        <v>-0.5413563440416232</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.253410602048458</v>
+        <v>-2.268924980915903</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.7230415150413262</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.44042280364425</v>
+        <v>-19.40906673833831</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2630139856265271</v>
+        <v>-0.2636816930714551</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.103817949778896</v>
+        <v>-2.10696010246091</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.2850819693949795</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.88123745697128</v>
+        <v>-18.85384835942639</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.009049495102724793</v>
+        <v>-0.001207205700530878</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.083393957345803</v>
+        <v>-2.074294806870804</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1278522099559777</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.98444089691873</v>
+        <v>-17.94896075621766</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.01720599977312013</v>
+        <v>-0.01162867876254483</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.975788320289656</v>
+        <v>-1.962172325334261</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5101351215477552</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.6469736988704</v>
+        <v>-17.61315628063022</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03213888963734542</v>
+        <v>0.03511084238241723</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.181245828784864</v>
+        <v>-2.164841173324181</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8571623171074066</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.13643934955729</v>
+        <v>-17.10616994538722</v>
       </c>
       <c r="F45" t="n">
-        <v>0.000115116886483455</v>
+        <v>0.005823360925476021</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.226178612137668</v>
+        <v>-2.205833173521625</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.165658378206998</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.76021893509745</v>
+        <v>-16.73099691515472</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0184705254705834</v>
+        <v>0.0212330013701876</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.176938461149936</v>
+        <v>-2.143278150543858</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.431598195584561</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.09654391944467</v>
+        <v>-16.05801327218147</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0310260438957987</v>
+        <v>0.02603787651310107</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.470166767896075</v>
+        <v>-2.431125520822047</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.652006691561906</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.44107777767366</v>
+        <v>-15.40957769703647</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002785946666195573</v>
+        <v>-0.0072951265219335</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.406852391353487</v>
+        <v>-2.363425222827482</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.82522133020642</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.90962192841947</v>
+        <v>-14.8720732038694</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1480450466951463</v>
+        <v>0.1458717244234198</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.599505627669486</v>
+        <v>-2.540564080276035</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>1.951085361700686</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.21470867818634</v>
+        <v>-14.17168737104842</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2962630071663271</v>
+        <v>0.2925186085535935</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.524814039957439</v>
+        <v>-2.444728423474601</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>2.030618315475632</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.44519548636104</v>
+        <v>-13.41157445266349</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2906987784585935</v>
+        <v>0.2861688416753563</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.59999004287463</v>
+        <v>-2.508501030616649</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>2.063668751551016</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.85439222832531</v>
+        <v>-12.82704240768895</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3738087168978706</v>
+        <v>0.3712164409352088</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.611157777198623</v>
+        <v>-2.519328365066756</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>2.05040210835869</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.1982976560179</v>
+        <v>-12.17365794206977</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4223811604406743</v>
+        <v>0.4190426232160342</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.634972676067722</v>
+        <v>-2.537723050559381</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>1.991161320167959</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.82876740831018</v>
+        <v>-11.79652106641101</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3113977092513625</v>
+        <v>0.3101539404813985</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.742984174511963</v>
+        <v>-2.640929673860708</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>1.885669924215322</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.36980363989063</v>
+        <v>-11.34267638840257</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06332475500633691</v>
+        <v>0.06132163267155282</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.212513431324784</v>
+        <v>-3.102603548968494</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.73250673293719</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.92986298750011</v>
+        <v>-10.89362349323421</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1512264762856857</v>
+        <v>0.1540413213966568</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.281928820991616</v>
+        <v>-3.170500231505685</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.52902402689691</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.17154371460449</v>
+        <v>-10.13851183453482</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08860599179370995</v>
+        <v>0.08732294611522079</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.642373010527177</v>
+        <v>-3.53840703366103</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.273663451510269</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.866493058392274</v>
+        <v>-9.835935623559685</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.08120117606347715</v>
+        <v>-0.08628098956606686</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.68024904264829</v>
+        <v>-3.571582929061964</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.9663369580959154</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.32489067443575</v>
+        <v>-9.293469147615609</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004631961366878949</v>
+        <v>0.004998545846447279</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.959926815953242</v>
+        <v>-3.858710222683858</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.6113764172435827</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.964145361934831</v>
+        <v>-8.927002498772854</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1334787413104893</v>
+        <v>-0.1315410804899139</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.873727094043318</v>
+        <v>-3.769315978880552</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2183422478862945</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.431498113122046</v>
+        <v>-8.401438185797444</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1535623338696971</v>
+        <v>-0.1575685785392653</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.273487469012581</v>
+        <v>-4.171550799086902</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2004334062166841</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.927012407721817</v>
+        <v>-7.88622988436984</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.09822116975772105</v>
+        <v>-0.09801169291225342</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.236122036702295</v>
+        <v>-4.127822507595537</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6305092555482645</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.444822894061045</v>
+        <v>-7.401971786860075</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1527244264878267</v>
+        <v>-0.1593753163314235</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.237103959415425</v>
+        <v>-4.130715906523559</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.057011620126332</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.086970980488147</v>
+        <v>-7.049409163635235</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3091774454464532</v>
+        <v>-0.3167447964889709</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.486420682430414</v>
+        <v>-4.38330570524898</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.463820443425722</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.715869656439422</v>
+        <v>-6.675375163749963</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2578032490955201</v>
+        <v>-0.2619142321878221</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.769031131571913</v>
+        <v>-4.669961675968572</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.834398723503729</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.469132117084252</v>
+        <v>-6.428113932281124</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3729762371941843</v>
+        <v>-0.3803341113912344</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.757850304945079</v>
+        <v>-4.66600780051037</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.153812475958888</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.305020100963215</v>
+        <v>-6.262928347327066</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.427047447930513</v>
+        <v>-0.4344315067332465</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.869265802128168</v>
+        <v>-4.784257479776841</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.410015283644279</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.026311158068551</v>
+        <v>-5.986432003612653</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3948272906370251</v>
+        <v>-0.4050523791564132</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.866686618468348</v>
+        <v>-4.781927049871014</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.594450091507373</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.890347593057226</v>
+        <v>-5.854867452356148</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6481502583215828</v>
+        <v>-0.6618448070940283</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.964800335964243</v>
+        <v>-4.885971580554211</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.702014596548822</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.656296495155689</v>
+        <v>-5.612201619184756</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5974175848098943</v>
+        <v>-0.6052336896064048</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.828614201804609</v>
+        <v>-4.756658905386482</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.731207244212887</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.531697049010982</v>
+        <v>-5.489945695248718</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6944315488670845</v>
+        <v>-0.7080082669139544</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.80207610394443</v>
+        <v>-4.736496759010224</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.684423108123893</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.514375932351379</v>
+        <v>-5.466719950007495</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7849779153204619</v>
+        <v>-0.79960201759467</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.697926834838499</v>
+        <v>-4.637833164794976</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.56791987657848</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.550026272989398</v>
+        <v>-5.498573522821415</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8434088629030854</v>
+        <v>-0.8621439482695954</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.510772365716025</v>
+        <v>-4.454043417502826</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.390879658803146</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.787311169692842</v>
+        <v>-5.735963157947592</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.736994625405536</v>
+        <v>-0.7530196040838086</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.402106252129698</v>
+        <v>-4.340140382779809</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.165591983592442</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.986327265189919</v>
+        <v>-5.938605821331828</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.063241719918508</v>
+        <v>-1.0854855424466</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.23684211335859</v>
+        <v>-4.175557043756471</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.90470352250635</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.51424819267684</v>
+        <v>-6.46805854825123</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9748163065254899</v>
+        <v>-0.9949653605989064</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.075112896354748</v>
+        <v>-4.009546643723384</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.622036564570765</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.977741897879626</v>
+        <v>-6.935257375158225</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.031113208744912</v>
+        <v>-1.052545308496818</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.993443111228061</v>
+        <v>-3.929290827303603</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.330524826877564</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.553973422852516</v>
+        <v>-7.508883531865611</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.120887129330628</v>
+        <v>-1.149677103279583</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.597283119540272</v>
+        <v>-3.522879562490743</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.040351950647583</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.98006241883649</v>
+        <v>-7.936609065704801</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.082801620364046</v>
+        <v>-1.114484993241024</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.392257657038841</v>
+        <v>-3.311190117842874</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7618528918317176</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.45185664404093</v>
+        <v>-8.408861521508703</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.269196735921701</v>
+        <v>-1.297292817820045</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.025568439047778</v>
+        <v>-2.943244038779004</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5022930360065899</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.394646463976468</v>
+        <v>-9.35188700289539</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.192672225811812</v>
+        <v>-1.221226538309616</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.007134476646628</v>
+        <v>-2.917517663695012</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2700255454946041</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.21718348231075</v>
+        <v>-10.18152004936989</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.282982930814038</v>
+        <v>-1.314613934479648</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.83209038765275</v>
+        <v>-2.743808989590991</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.07187721997449537</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.04901603566266</v>
+        <v>-11.01518552511964</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.386673969320509</v>
+        <v>-1.425152247372341</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.459758387136902</v>
+        <v>-2.368649051661331</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.08814305780728256</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.26110143274966</v>
+        <v>-12.23541433457419</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.466222801386836</v>
+        <v>-1.498822635462734</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.353069211279676</v>
+        <v>-2.26525913612022</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.204262780875711</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.14354882888768</v>
+        <v>-13.12624080453091</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.561718058314386</v>
+        <v>-1.59937152128719</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.011543399350411</v>
+        <v>-1.918208372391745</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2748353421064899</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.3305100968214</v>
+        <v>-14.32176443852313</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.763941768007687</v>
+        <v>-1.81235710391639</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.763156229837183</v>
+        <v>-1.678003892154597</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2971457929346332</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42896739754506</v>
+        <v>-15.42799856713477</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.806282275397829</v>
+        <v>-1.852393366006388</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.351652059218891</v>
+        <v>-1.262257815415586</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2700034753487364</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.8396499364382</v>
+        <v>-16.84855270237058</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.828395174897504</v>
+        <v>-1.880882216989984</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.041861989377969</v>
+        <v>-0.9589877123898431</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1955902815099468</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.52211559002274</v>
+        <v>-18.54816927267777</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.056240521252063</v>
+        <v>-2.106331671924507</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.833772928011575</v>
+        <v>-0.748987174808557</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.07438276562741755</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.13542769999727</v>
+        <v>-20.16406056631213</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.280236730571155</v>
+        <v>-2.328128374366188</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5388164372903285</v>
+        <v>-0.4610219738047921</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.08811946079991122</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.9607172852822</v>
+        <v>-21.99343495008367</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.485916808214671</v>
+        <v>-2.541768572137475</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6930961339772284</v>
+        <v>-0.6285641732703606</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2868692152787735</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.68129463243899</v>
+        <v>-23.71978600279367</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.589280539150098</v>
+        <v>-2.647737671338405</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.5164416917338186</v>
+        <v>-0.4506921468626702</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.5160005260910121</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.75535106401956</v>
+        <v>-25.80049332421783</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.770883871867681</v>
+        <v>-2.81995382291847</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.5121474164017324</v>
+        <v>-0.4484402707738934</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.7674995661515869</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.01962556358755</v>
+        <v>-28.07308143609032</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.641623565911319</v>
+        <v>-2.692238408697432</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6501533806563669</v>
+        <v>-0.5830684208953625</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.036250097167559</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.30111644139242</v>
+        <v>-30.35339400663943</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.134457121782413</v>
+        <v>-3.180607489299498</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.025575164642862</v>
+        <v>-0.973808199206677</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.321217138420886</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.48086703381423</v>
+        <v>-32.53796256650701</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.194249668860576</v>
+        <v>-3.238789683128128</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.245460390869651</v>
+        <v>-1.196822485812639</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.615714249408839</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.70733096277533</v>
+        <v>-34.76298634215551</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.567380299849769</v>
+        <v>-3.621228941437789</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.477141781956836</v>
+        <v>-1.434382320875758</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.935042817723041</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.21259548075098</v>
+        <v>-37.26603826095091</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.813489408668536</v>
+        <v>-3.862467713599433</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.898491364312106</v>
+        <v>-1.867789914148258</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.264850951727764</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.74242115885771</v>
+        <v>-39.80247555199271</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.705870679309548</v>
+        <v>-3.752544738940301</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.374318018791798</v>
+        <v>-2.349049874307267</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.644366220432112</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.31575255930749</v>
+        <v>-42.36731004789821</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.891296964456914</v>
+        <v>-3.935116902068171</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.730101348515704</v>
+        <v>-2.716118769080741</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.033723951658688</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.57113738524596</v>
+        <v>-44.60536066487423</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.132640475041293</v>
+        <v>-4.175216643882585</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.333093540497082</v>
+        <v>-3.32701871197852</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.5189853772593</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.88085526797759</v>
+        <v>-46.90414647473302</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.274927622325172</v>
+        <v>-4.318603544605169</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.605282516576566</v>
+        <v>-3.601092979667214</v>
       </c>
     </row>
   </sheetData>
